--- a/inst/dados_premissas/2022/premissas_reg.xlsx
+++ b/inst/dados_premissas/2022/premissas_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\trabalho\codigo-local\epe4md-teste\inst\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC5CA6-D2F2-43E0-BB2A-E1E30164CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B894679-2423-4C46-A75A-058CB9141B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,21 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -526,7 +526,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -790,6 +790,443 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2038</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2039</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2040</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2041</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2042</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2043</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2044</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2045</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2046</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2047</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2048</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2049</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2050</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2051</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2052</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2053</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2054</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2055</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2056</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2057</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2058</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2059</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2060</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
